--- a/Example/Distribution Files/S1984/MecE_265_Aryanci/MecE_265.xlsx
+++ b/Example/Distribution Files/S1984/MecE_265_Aryanci/MecE_265.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zacha\OneDrive\Desktop\Ualberta Summer 2022 Co-op\Processing_Folders\Example\Distribution Files\S1984\MecE_265_Aryanci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE4DEDF-D351-40D4-8161-205642D90A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AAC963-DA76-44E2-96C7-23BDB090494E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -1522,10 +1522,10 @@
     <t>A1</t>
   </si>
   <si>
-    <t>Aryanci</t>
+    <t>MECE 265</t>
   </si>
   <si>
-    <t>MECE 265</t>
+    <t>John</t>
   </si>
 </sst>
 </file>
@@ -1913,32 +1913,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1976,6 +1950,32 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4818,23 +4818,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
@@ -4845,36 +4845,36 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="I3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="34"/>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="54"/>
       <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
@@ -4890,50 +4890,50 @@
       <c r="D6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="56" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="56" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="57"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="57"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C7" s="30"/>
       <c r="D7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="54" t="s">
+      <c r="H7" s="63"/>
+      <c r="I7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="L7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="55"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="8" t="s">
@@ -5300,10 +5300,10 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="37">
         <f>SUM(E8:E19)</f>
         <v>0</v>
@@ -5335,18 +5335,18 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="58" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="55" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="4"/>
@@ -5356,32 +5356,32 @@
         <v>#VALUE!</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="67" t="s">
+      <c r="N22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="68" t="e">
+      <c r="O22" s="58" t="e">
         <f>$L$22/MAX($L$23,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="49" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="66"/>
+      <c r="I23" s="56"/>
       <c r="L23" s="1">
         <f>$E$20</f>
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="69"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="59"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
@@ -5459,6 +5459,10 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
@@ -5475,10 +5479,6 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B22:C23"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D22:G22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -5503,7 +5503,7 @@
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L3" sqref="L3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
@@ -5525,23 +5525,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
@@ -5552,40 +5552,40 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="I3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
+      <c r="L3" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="34"/>
-      <c r="C4" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="62"/>
+      <c r="C4" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="52"/>
       <c r="E4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="64"/>
+      <c r="G4" s="54"/>
       <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
@@ -5601,50 +5601,50 @@
       <c r="D6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="56" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="56" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="57"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="57"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C7" s="30"/>
       <c r="D7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="54" t="s">
+      <c r="H7" s="63"/>
+      <c r="I7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="L7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="55"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="8" t="s">
@@ -6011,10 +6011,10 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="37">
         <f>SUM(E8:E19)</f>
         <v>64</v>
@@ -6046,18 +6046,18 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="58" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="55" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="4"/>
@@ -6067,32 +6067,32 @@
         <v>111.5</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="67" t="s">
+      <c r="N22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="68">
+      <c r="O22" s="58">
         <f>$L$22/MAX($L$23,1)</f>
         <v>1.7421875</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="49" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="66"/>
+      <c r="I23" s="56"/>
       <c r="L23" s="1">
         <f>$E$20</f>
         <v>64</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="69"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="59"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
@@ -6170,6 +6170,10 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B22:C23"/>
@@ -6186,10 +6190,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D22:G22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -6236,23 +6236,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
@@ -6263,32 +6263,32 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="I3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="34"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
@@ -6304,50 +6304,50 @@
       <c r="D6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="56" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="56" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="57"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="57"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C7" s="30"/>
       <c r="D7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="54" t="s">
+      <c r="H7" s="63"/>
+      <c r="I7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="L7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="55"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="8" t="s">
@@ -6714,10 +6714,10 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="37">
         <f>SUM(E8:E19)</f>
         <v>0</v>
@@ -6749,18 +6749,18 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="58" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="55" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="4"/>
@@ -6770,32 +6770,32 @@
         <v>#VALUE!</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="67" t="s">
+      <c r="N22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="68" t="e">
+      <c r="O22" s="58" t="e">
         <f>$L$22/MAX($L$23,1)</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="49" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="66"/>
+      <c r="I23" s="56"/>
       <c r="L23" s="1">
         <f>$E$20</f>
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="69"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="59"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
@@ -6873,6 +6873,10 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="C4:D4"/>
@@ -6889,10 +6893,6 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B22:C23"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D22:G22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -6939,23 +6939,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.35" x14ac:dyDescent="0.5">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="21" t="s">
@@ -6966,32 +6966,32 @@
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="I3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="60"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="34"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="63"/>
-      <c r="G4" s="64"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
       <c r="I4" s="3" t="s">
         <v>32</v>
       </c>
@@ -7007,50 +7007,50 @@
       <c r="D6" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="57"/>
-      <c r="G6" s="56" t="s">
+      <c r="F6" s="61"/>
+      <c r="G6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="56" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="57"/>
+      <c r="J6" s="61"/>
       <c r="K6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="56" t="s">
+      <c r="L6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="57"/>
+      <c r="M6" s="61"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C7" s="30"/>
       <c r="D7" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="54" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="55"/>
-      <c r="I7" s="54" t="s">
+      <c r="H7" s="63"/>
+      <c r="I7" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="55"/>
+      <c r="J7" s="63"/>
       <c r="K7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="L7" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="55"/>
+      <c r="M7" s="63"/>
     </row>
     <row r="8" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="8" t="s">
@@ -7393,10 +7393,10 @@
       <c r="M19" s="14"/>
     </row>
     <row r="20" spans="2:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="37">
         <f>SUM(E8:E19)</f>
         <v>0</v>
@@ -7428,18 +7428,18 @@
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="58" t="s">
+      <c r="C22" s="68"/>
+      <c r="D22" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
       <c r="H22" s="10"/>
-      <c r="I22" s="65" t="s">
+      <c r="I22" s="55" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="4"/>
@@ -7449,32 +7449,32 @@
         <v>0</v>
       </c>
       <c r="M22" s="6"/>
-      <c r="N22" s="67" t="s">
+      <c r="N22" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="O22" s="68">
+      <c r="O22" s="58">
         <f>$L$22/MAX($L$23,1)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="49" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="66"/>
+      <c r="I23" s="56"/>
       <c r="L23" s="1">
         <f>$E$20</f>
         <v>0</v>
       </c>
       <c r="M23" s="1"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="69"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="59"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="C24" s="2" t="s">
@@ -7552,6 +7552,10 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="B22:C23"/>
@@ -7568,10 +7572,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="L7:M7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="D22:G22"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
